--- a/Master Thesis - Maarten Swaap/Replication package/Goals, QA, ASR and concerns.xlsx
+++ b/Master Thesis - Maarten Swaap/Replication package/Goals, QA, ASR and concerns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mswaa\iCloudDrive\Documents\Studie en diploma's\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A4CCB-552D-4500-A083-C478DB4067CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF71917A-F71F-4D63-85AC-5F2F1EF62CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{78674DF3-9FAE-4687-819F-A7773129C332}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="172">
   <si>
     <t>Concern</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Interviewee 2 - Informatie Analist</t>
   </si>
   <si>
-    <t>Interviewee 4 -</t>
-  </si>
-  <si>
     <t>Interviewee 5 - Chief Information Security Officer</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>Geinterviewde 3 - Regie architect</t>
-  </si>
-  <si>
-    <t>Geinterviewde 4 -</t>
   </si>
   <si>
     <t>QA-01</t>
@@ -510,9 +504,6 @@
     <t>Interviewee 4 - Adviseur Digitalisering</t>
   </si>
   <si>
-    <t>Provide identity data outside government organisations, while preserving citizens privacy</t>
-  </si>
-  <si>
     <t>Usage of identity information of the 'Basisregistratie personen (BRP)' is now limited to a small selection of government and non-government organizations. It can be assumed more non-government organizations will need to verify an identity, while the identity information itself is not provided to that company.</t>
   </si>
   <si>
@@ -550,6 +541,21 @@
   </si>
   <si>
     <t>ST-02</t>
+  </si>
+  <si>
+    <t>Geinterviewde 4 - Adviseur digitalisering</t>
+  </si>
+  <si>
+    <t>Interviewee 4 - Advisor digitization</t>
+  </si>
+  <si>
+    <t>BG-07</t>
+  </si>
+  <si>
+    <t>Prevent unwanted combination of identity data, obtained by data breach</t>
+  </si>
+  <si>
+    <t>Provide identity data outside government organizations, while preserving citizens privacy</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E7D65C-A415-4EBE-9D85-F8F37ADB49B9}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,16 +1052,16 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
@@ -1312,22 +1318,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -1335,13 +1341,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>74</v>
@@ -1353,13 +1359,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>75</v>
@@ -1367,78 +1373,78 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
         <v>73</v>
@@ -1472,10 +1478,10 @@
         <v>Interviewee 3 - Directing architect</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -1487,10 +1493,10 @@
         <v>Interviewee 1 - Stelselspecialist and Interviewee 2 - Informatie Analist and Interviewee 3 - Directing architect</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1502,10 +1508,10 @@
         <v>Interviewee 2 - Informatie Analist and Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1517,10 +1523,10 @@
         <v>Interviewee 2 - Informatie Analist and Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1528,36 +1534,48 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" t="str">
+        <f>D20&amp;" and "&amp;D22</f>
+        <v>Interviewee 2 - Informatie Analist and Interviewee 4 - Advisor digitization</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
         <v>73</v>
@@ -1572,10 +1590,10 @@
         <v>Interviewee 3 - Directing architect</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G36" t="str">
         <f>A21</f>
@@ -1594,7 +1612,7 @@
         <v>69</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,10 +1624,10 @@
         <v>Interviewee 3 - Directing architect</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G38" t="str">
         <f>A29</f>
@@ -1625,13 +1643,13 @@
         <v>Interviewee 2 - Informatie Analist and Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,10 +1661,10 @@
         <v>Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1658,13 +1676,13 @@
         <v>Interviewee 2 - Informatie Analist</v>
       </c>
       <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1676,13 +1694,13 @@
         <v>Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1694,13 +1712,13 @@
         <v>Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -1712,84 +1730,84 @@
         <v>Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" t="str">
         <f>D19</f>
         <v>Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
         <v>153</v>
       </c>
-      <c r="B47" t="s">
-        <v>155</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G50" t="s">
         <v>73</v>
@@ -1797,17 +1815,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" t="str">
         <f>D21</f>
         <v>Interviewee 3 - Directing architect</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G51" t="str">
         <f>A31&amp; ", "&amp;A44</f>
@@ -1816,17 +1834,17 @@
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" t="str">
         <f>D21</f>
         <v>Interviewee 3 - Directing architect</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" t="str">
         <f>A28&amp;" "&amp;A27&amp; ", "&amp;A36&amp; ", "&amp;A37</f>
@@ -1835,17 +1853,17 @@
     </row>
     <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" t="str">
         <f>D21</f>
         <v>Interviewee 3 - Directing architect</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G53" t="str">
         <f>A27&amp;" "&amp;A45</f>
@@ -1854,17 +1872,17 @@
     </row>
     <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" t="str">
         <f>D21</f>
         <v>Interviewee 3 - Directing architect</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G54" t="str">
         <f>A31</f>
@@ -1873,17 +1891,17 @@
     </row>
     <row r="55" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" t="str">
         <f>D20&amp;" and "&amp;D19</f>
         <v>Interviewee 2 - Informatie Analist and Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G55" t="str">
         <f>A29&amp; ", "&amp;A38</f>
@@ -1892,17 +1910,17 @@
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" t="str">
         <f>D20&amp;"and "&amp;D19</f>
         <v>Interviewee 2 - Informatie Analistand Interviewee 1 - Stelselspecialist</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="str">
         <f>A27&amp;" "&amp;A39&amp; ", "&amp;A40&amp; ", "&amp;A41</f>
@@ -1911,27 +1929,27 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1960,17 +1978,17 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
